--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>net_idx</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
   </si>
   <si>
     <t>x_2</t>
@@ -591,13 +594,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,8 +652,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -667,46 +673,49 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -723,46 +732,49 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
+      <c r="S3">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -779,43 +791,46 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4">
         <v>1</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -842,34 +857,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -883,37 +898,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>net_idx</t>
   </si>
@@ -144,6 +144,9 @@
     <t>arrow_head_size</t>
   </si>
   <si>
+    <t>rxn_dash</t>
+  </si>
+  <si>
     <t>r_0</t>
   </si>
   <si>
@@ -169,6 +172,9 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -840,13 +846,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,8 +892,11 @@
       <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -898,37 +907,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>net_idx</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
   </si>
   <si>
     <t>r_0</t>
@@ -846,13 +849,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,8 +898,11 @@
       <c r="O1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -907,40 +913,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>net_idx</t>
   </si>
@@ -84,6 +84,15 @@
     <t>txt_font_size</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>x_2</t>
   </si>
   <si>
@@ -117,6 +126,12 @@
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -175,9 +190,6 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -603,13 +615,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,8 +676,17 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -682,40 +703,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -723,8 +744,17 @@
       <c r="S2">
         <v>11</v>
       </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -741,40 +771,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -782,8 +812,17 @@
       <c r="S3">
         <v>11</v>
       </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -800,46 +839,55 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
         <v>11</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -866,40 +914,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -913,40 +961,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -10,13 +10,14 @@
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>net_idx</t>
   </si>
@@ -190,6 +191,9 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
+  </si>
+  <si>
+    <t>txt_content</t>
   </si>
 </sst>
 </file>
@@ -1003,4 +1007,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>net_idx</t>
   </si>
@@ -46,10 +47,10 @@
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[10.0, 10.0]</t>
-  </si>
-  <si>
-    <t>[3900.0, 2400.0]</t>
+    <t>[0, 0]</t>
+  </si>
+  <si>
+    <t>[1000, 1000]</t>
   </si>
   <si>
     <t>[255, 255, 255, 255]</t>
@@ -1040,4 +1041,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C76AD-04F8-4EBF-B72C-9C1ADCA9060B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>net_idx</t>
   </si>
@@ -195,13 +201,19 @@
   </si>
   <si>
     <t>txt_content</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
+    <t>[255,255,255,255]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,7 +238,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -249,13 +261,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -264,6 +290,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -310,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +376,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,6 +428,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -551,14 +621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -619,14 +689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +761,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -759,7 +829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -827,7 +897,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -901,14 +971,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,7 +1003,7 @@
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>42</v>
@@ -954,8 +1026,11 @@
       <c r="P1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1003,6 +1078,9 @@
       </c>
       <c r="P2" t="b">
         <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1011,14 +1089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1044,14 +1122,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1C76AD-04F8-4EBF-B72C-9C1ADCA9060B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,10 +44,31 @@
     <t>border_width</t>
   </si>
   <si>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[0, 0]</t>
+    <t>[0.0, 0.0]</t>
   </si>
   <si>
     <t>[1000, 1000]</t>
@@ -62,6 +77,12 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>['middle', 'middle']</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -77,21 +98,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -131,9 +137,6 @@
     <t>[255, 108, 9, 255]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 255]</t>
-  </si>
-  <si>
     <t>rectangle</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -198,22 +204,13 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
-  </si>
-  <si>
-    <t>txt_content</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
-  </si>
-  <si>
-    <t>[255,255,255,255]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -261,27 +258,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -290,14 +273,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -344,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,27 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,24 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,14 +560,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,8 +592,29 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -665,22 +625,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -689,34 +667,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -725,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -743,25 +721,31 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -778,40 +762,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -820,16 +804,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -846,40 +833,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -888,16 +875,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -914,40 +904,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -956,13 +946,16 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="X4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -971,16 +964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,46 +982,46 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1041,46 +1032,46 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1089,31 +1080,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1119,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1149,10 +1146,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>net_idx</t>
   </si>
@@ -812,6 +812,9 @@
       <c r="V2" t="s">
         <v>40</v>
       </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
       <c r="X2" t="s">
         <v>20</v>
       </c>
@@ -882,6 +885,9 @@
       </c>
       <c r="V3" t="s">
         <v>40</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
       </c>
       <c r="X3" t="s">
         <v>20</v>
@@ -953,6 +959,9 @@
       </c>
       <c r="V4" t="s">
         <v>40</v>
+      </c>
+      <c r="W4" t="s">
+        <v>31</v>
       </c>
       <c r="X4" t="s">
         <v>20</v>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
   <si>
     <t>net_idx</t>
   </si>
@@ -77,6 +78,9 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0.0]</t>
+  </si>
+  <si>
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
@@ -179,6 +183,15 @@
     <t>rxn_reversible</t>
   </si>
   <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
     <t>r_0</t>
   </si>
   <si>
@@ -203,7 +216,28 @@
     <t>[[331.33, 198.0], [320.25, 186.0], [386.75, 258.0]]</t>
   </si>
   <si>
-    <t>[12.0, 15.0]</t>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_NONE_']</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_']</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -646,10 +680,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -658,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -679,22 +713,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -703,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -730,13 +764,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -762,40 +796,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -804,19 +838,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -836,40 +870,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -878,19 +912,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -910,40 +944,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -952,19 +986,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -974,13 +1008,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,46 +1025,55 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1041,46 +1084,55 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1189,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1155,10 +1207,89 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>net_idx</t>
   </si>
@@ -192,6 +192,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>r_0</t>
   </si>
   <si>
@@ -222,22 +231,49 @@
     <t>['_line_ending_default_NONE_']</t>
   </si>
   <si>
-    <t>['_line_ending_default_']</t>
+    <t>['line_ending_r_0']</t>
+  </si>
+  <si>
+    <t>['line_ending_modifier_r_0_2']</t>
+  </si>
+  <si>
+    <t>[[287.0, 150.0]]</t>
+  </si>
+  <si>
+    <t>[[420.0, 294.0]]</t>
+  </si>
+  <si>
+    <t>[[]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
   </si>
   <si>
-    <t>_line_ending_default_</t>
+    <t>line_ending_r_0</t>
+  </si>
+  <si>
+    <t>line_ending_modifier_r_0_2</t>
   </si>
   <si>
     <t>[-15.0, -6.0]</t>
   </si>
   <si>
+    <t>[-3.0, 0.0]</t>
+  </si>
+  <si>
+    <t>[6.0, 6.0]</t>
+  </si>
+  <si>
     <t>['polygon']</t>
   </si>
   <si>
+    <t>['ellipse']</t>
+  </si>
+  <si>
     <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+  </si>
+  <si>
+    <t>[[[0.0, 0.0], [100.0, 100.0]]]</t>
   </si>
 </sst>
 </file>
@@ -1008,13 +1044,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,8 +1108,17 @@
       <c r="T1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1084,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
         <v>41</v>
@@ -1126,13 +1171,22 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>71</v>
+      </c>
+      <c r="U2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1274,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1251,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1274,22 +1328,45 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>net_idx</t>
   </si>
@@ -201,6 +201,9 @@
     <t>mod_lineend_position</t>
   </si>
   <si>
+    <t>center_size</t>
+  </si>
+  <si>
     <t>r_0</t>
   </si>
   <si>
@@ -225,52 +228,52 @@
     <t>[[331.33, 198.0], [320.25, 186.0], [386.75, 258.0]]</t>
   </si>
   <si>
+    <t>[6.0, 6.0]</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_NONE_']</t>
+  </si>
+  <si>
+    <t>['line_ending_r_0']</t>
+  </si>
+  <si>
+    <t>['line_ending_modifier_r_0_2']</t>
+  </si>
+  <si>
+    <t>[[303.62, 168.0]]</t>
+  </si>
+  <si>
+    <t>[[403.38, 276.0]]</t>
+  </si>
+  <si>
+    <t>[[338.5, 227.15]]</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>line_ending_r_0</t>
+  </si>
+  <si>
+    <t>line_ending_modifier_r_0_2</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>[-3.0, 0.0]</t>
+  </si>
+  <si>
     <t>[15.0, 12.0]</t>
   </si>
   <si>
-    <t>['_line_ending_default_NONE_']</t>
-  </si>
-  <si>
-    <t>['line_ending_r_0']</t>
-  </si>
-  <si>
-    <t>['line_ending_modifier_r_0_2']</t>
-  </si>
-  <si>
-    <t>[[287.0, 150.0]]</t>
-  </si>
-  <si>
-    <t>[[420.0, 294.0]]</t>
-  </si>
-  <si>
-    <t>[[]]</t>
-  </si>
-  <si>
-    <t>_line_ending_default_NONE_</t>
-  </si>
-  <si>
-    <t>line_ending_r_0</t>
-  </si>
-  <si>
-    <t>line_ending_modifier_r_0_2</t>
-  </si>
-  <si>
-    <t>[-15.0, -6.0]</t>
-  </si>
-  <si>
-    <t>[-3.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[6.0, 6.0]</t>
-  </si>
-  <si>
     <t>['polygon']</t>
   </si>
   <si>
     <t>['ellipse']</t>
   </si>
   <si>
-    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+    <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
   </si>
   <si>
     <t>[[[0.0, 0.0], [100.0, 100.0]]]</t>
@@ -1044,13 +1047,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,8 +1120,20 @@
       <c r="W1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1129,37 +1144,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2" t="s">
         <v>41</v>
@@ -1171,22 +1186,28 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1328,22 +1349,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1351,22 +1372,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
   <si>
     <t>net_idx</t>
   </si>
@@ -144,93 +145,102 @@
     <t>rectangle</t>
   </si>
   <si>
+    <t>[[0.0, 0.0]]</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t>rate_law</t>
+  </si>
+  <si>
+    <t>modifiers</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
+    <t>line_thickness</t>
+  </si>
+  <si>
+    <t>center_pos</t>
+  </si>
+  <si>
+    <t>handles</t>
+  </si>
+  <si>
+    <t>bezier</t>
+  </si>
+  <si>
+    <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
+  </si>
+  <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
+    <t>center_size</t>
+  </si>
+  <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
+    <t>r_0</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>E0 * (k0 * x_2 - k0r * x_1)</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[91, 176, 253, 255]</t>
+  </si>
+  <si>
+    <t>[353.5, 222.0]</t>
+  </si>
+  <si>
+    <t>[[331.33, 198.0], [320.25, 186.0], [386.75, 258.0]]</t>
+  </si>
+  <si>
+    <t>[6.0, 6.0]</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>targets</t>
-  </si>
-  <si>
-    <t>rate_law</t>
-  </si>
-  <si>
-    <t>modifiers</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
-  </si>
-  <si>
-    <t>line_thickness</t>
-  </si>
-  <si>
-    <t>center_pos</t>
-  </si>
-  <si>
-    <t>handles</t>
-  </si>
-  <si>
-    <t>bezier</t>
-  </si>
-  <si>
-    <t>arrow_head_size</t>
-  </si>
-  <si>
-    <t>rxn_dash</t>
-  </si>
-  <si>
-    <t>rxn_reversible</t>
-  </si>
-  <si>
-    <t>sources_lineending</t>
-  </si>
-  <si>
-    <t>targets_lineending</t>
-  </si>
-  <si>
-    <t>modifiers_lineending</t>
-  </si>
-  <si>
-    <t>src_lineend_position</t>
-  </si>
-  <si>
-    <t>tgt_lineend_position</t>
-  </si>
-  <si>
-    <t>mod_lineend_position</t>
-  </si>
-  <si>
-    <t>center_size</t>
-  </si>
-  <si>
-    <t>r_0</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>E0 * (k0 * x_2 - k0r * x_1)</t>
-  </si>
-  <si>
-    <t>[2]</t>
-  </si>
-  <si>
-    <t>[91, 176, 253, 255]</t>
-  </si>
-  <si>
-    <t>[353.5, 222.0]</t>
-  </si>
-  <si>
-    <t>[[331.33, 198.0], [320.25, 186.0], [386.75, 258.0]]</t>
-  </si>
-  <si>
-    <t>[6.0, 6.0]</t>
-  </si>
-  <si>
     <t>['_line_ending_default_NONE_']</t>
   </si>
   <si>
@@ -277,6 +287,12 @@
   </si>
   <si>
     <t>[[[0.0, 0.0], [100.0, 100.0]]]</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -1047,13 +1063,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,8 +1148,14 @@
       <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1144,40 +1166,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
         <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1186,28 +1208,34 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s">
         <v>16</v>
       </c>
       <c r="AA2" t="s">
-        <v>41</v>
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1295,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1320,13 +1348,16 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1335,59 +1366,110 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>['middle', 'middle']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -103,15 +115,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
-  </si>
-  <si>
     <t>x_2</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
   </si>
   <si>
     <t>[6.0, 6.0]</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>['_line_ending_default_NONE_']</t>
@@ -650,13 +650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,8 +702,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -714,31 +723,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -747,7 +756,10 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -768,22 +780,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -792,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -819,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -851,40 +863,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -893,19 +905,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -925,40 +937,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -967,19 +979,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -999,40 +1011,40 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -1041,19 +1053,19 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1080,79 +1092,79 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1166,46 +1178,46 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>73</v>
@@ -1226,16 +1238,16 @@
         <v>78</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1304,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1310,10 +1322,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1343,10 +1355,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1360,22 +1372,22 @@
         <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1392,7 +1404,7 @@
         <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
         <v>85</v>
@@ -1401,7 +1413,7 @@
         <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1415,10 +1427,10 @@
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>86</v>
@@ -1427,7 +1439,7 @@
         <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test_modifier.xlsx
+++ b/tests/initiate_excel_files/test_modifier.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>net_idx</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>shape_idx</t>
+  </si>
+  <si>
+    <t>spec_dash</t>
   </si>
   <si>
     <t>x_2</t>
@@ -769,13 +772,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,8 +848,11 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -863,34 +869,34 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -905,22 +911,25 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -937,34 +946,34 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -979,22 +988,25 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
         <v>24</v>
       </c>
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1011,34 +1023,34 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1053,19 +1065,22 @@
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X4" t="s">
         <v>24</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1092,64 +1107,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1161,10 +1176,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1178,37 +1193,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -1220,22 +1235,22 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s">
         <v>19</v>
@@ -1369,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1395,22 +1410,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -1421,22 +1436,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -1457,10 +1472,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
